--- a/historical_posts.xlsx
+++ b/historical_posts.xlsx
@@ -415,7 +415,7 @@
   <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -423,969 +423,969 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/siemens%2Dcareers%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dlhysf</t>
+          <t>https://www.linkedin.com/pulse/capgemini%2Dcareers%2Ddiploma%2Dgraduate%2Dpost%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D6zibf</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Great post!</t>
+          <t>Very informative, thank you!</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2024-07-10 12:56:50</t>
+          <t>2024-07-10 12:56:59</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/capgemini%2Dcareers%2Ddiploma%2Dgraduate%2Dpost%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D6zibf</t>
+          <t>https://www.linkedin.com/pulse/hp%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2Drole%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dym9vf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Very informative, thank you!</t>
+          <t>I completely agree with this.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-10 12:56:59</t>
+          <t>2024-07-10 12:57:08</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hp%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2Drole%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dym9vf</t>
+          <t>https://www.linkedin.com/pulse/wipro%2Dcareers%2Dentry%2Dlevel%2Dgraduates%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dl9pcf</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I completely agree with this.</t>
+          <t>Awesome insight!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-10 12:57:08</t>
+          <t>2024-07-10 12:57:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/wipro%2Dcareers%2Dentry%2Dlevel%2Dgraduates%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dl9pcf</t>
+          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7212676223586512896&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Awesome insight!</t>
+          <t>This is really helpful.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-10 12:57:17</t>
+          <t>2024-07-10 12:57:28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7212676223586512896&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
+          <t>https://www.linkedin.com/pulse/hsbc%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dak2rf</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This is really helpful.</t>
+          <t>Thanks for sharing!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-10 12:57:28</t>
+          <t>2024-07-10 12:58:19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hsbc%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dak2rf</t>
+          <t>https://www.linkedin.com/pulse/kpit%2Dhiring%2Dtech%2Dgraduates%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dyzfkf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Thanks for sharing!</t>
+          <t>Amazing work!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-10 12:58:19</t>
+          <t>2024-07-10 12:58:28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/kpit%2Dhiring%2Dtech%2Dgraduates%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dyzfkf</t>
+          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7211911776676773889&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amazing work!</t>
+          <t>Really well explained.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-10 12:58:28</t>
+          <t>2024-07-10 12:58:36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7211911776676773889&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
+          <t>https://www.linkedin.com/pulse/big4%2Dfirmkpmg%2Ddeloitte%2Dey%2Dpwc%2Dhiring%2Dgraduates%2D0%2D%2Dummxf</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Really well explained.</t>
+          <t>This is fantastic.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-10 12:58:36</t>
+          <t>2024-07-10 12:59:30</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/big4%2Dfirmkpmg%2Ddeloitte%2Dey%2Dpwc%2Dhiring%2Dgraduates%2D0%2D%2Dummxf</t>
+          <t>https://www.linkedin.com/pulse/jpmorgan%2Dchase%2Dhiring%2Dgraduates%2Dentry%2Dlevel%2Dcareer%2Dfor%2Dfreshers%2D9llsf</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>This is fantastic.</t>
+          <t>Couldn't agree more.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-10 12:59:30</t>
+          <t>2024-07-10 12:59:39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/jpmorgan%2Dchase%2Dhiring%2Dgraduates%2Dentry%2Dlevel%2Dcareer%2Dfor%2Dfreshers%2D9llsf</t>
+          <t>https://www.linkedin.com/pulse/saudi%2Daramco%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2Drole%2Dcareer%2Dfor%2Dfreshers%2Dntmrf</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Couldn't agree more.</t>
+          <t>Interesting perspective!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-10 12:59:39</t>
+          <t>2024-07-10 12:59:48</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/saudi%2Daramco%2Dhiring%2Dgraduate%2Dentry%2Dlevel%2Drole%2Dcareer%2Dfor%2Dfreshers%2Dntmrf</t>
+          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7211325295214178305&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Interesting perspective!</t>
+          <t>Loved this post.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-10 12:59:48</t>
+          <t>2024-07-10 12:59:57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/feed/?highlightedUpdateUrn=urn%3Ali%3Aactivity%3A7211325295214178305&amp;highlightedUpdateType=COMMENTS_BY_YOUR_NETWORK&amp;origin=COMMENTS_BY_YOUR_NETWORK&amp;showCommentBox=true</t>
+          <t>https://www.linkedin.com/pulse/mega%2Dwalk%2Din%2Ddrive%2Djune%2D29%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dr3ssf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Loved this post.</t>
+          <t>Great post!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-10 12:59:57</t>
+          <t>2024-07-10 13:07:36</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/mega%2Dwalk%2Din%2Ddrive%2Djune%2D29%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dr3ssf</t>
+          <t>https://www.linkedin.com/pulse/deutsche%2Dbank%2Dcareers%2Dgraduate%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dzrcsf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Great post!</t>
+          <t>Very informative, thank you!</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-10 13:07:36</t>
+          <t>2024-07-10 13:07:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/deutsche%2Dbank%2Dcareers%2Dgraduate%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dzrcsf</t>
+          <t>https://www.linkedin.com/pulse/beyond%2Ddevice%2Dmonetizing%2Dintelligent%2Decosystems%2Dbehind%2Dconnected%2D3eyye</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Very informative, thank you!</t>
+          <t>I completely agree with this.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-10 13:07:45</t>
+          <t>2024-07-10 13:07:54</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/beyond%2Ddevice%2Dmonetizing%2Dintelligent%2Decosystems%2Dbehind%2Dconnected%2D3eyye</t>
+          <t>https://www.linkedin.com/pulse/dell%2Dvirtual%2Dremote%2Dhiring%2Dgraduate%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dhiflf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I completely agree with this.</t>
+          <t>Awesome insight!</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-10 13:07:54</t>
+          <t>2024-07-10 13:08:05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/dell%2Dvirtual%2Dremote%2Dhiring%2Dgraduate%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dhiflf</t>
+          <t>https://www.linkedin.com/pulse/honeywell%2Dhiring%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Do9a7f</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Awesome insight!</t>
+          <t>This is really helpful.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:05</t>
+          <t>2024-07-10 13:08:15</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/honeywell%2Dhiring%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Do9a7f</t>
+          <t>https://www.linkedin.com/pulse/infosys%2Dcareers%2Dentry%2Dlevel%2Dexperienced%2D0%2D10%2Dyrs%2Drwahf</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>This is really helpful.</t>
+          <t>Thanks for sharing!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:15</t>
+          <t>2024-07-10 13:08:26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/infosys%2Dcareers%2Dentry%2Dlevel%2Dexperienced%2D0%2D10%2Dyrs%2Drwahf</t>
+          <t>https://www.linkedin.com/pulse/ibm%2Dhiring%2Dgraduates%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dtp5hf</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Thanks for sharing!</t>
+          <t>Amazing work!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:26</t>
+          <t>2024-07-10 13:08:35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/ibm%2Dhiring%2Dgraduates%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dtp5hf</t>
+          <t>https://www.linkedin.com/pulse/entry%2Dlevel%2Dcareersaccenture%2Dcareer%2Dfor%2Dfreshers%2Dmgkcf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amazing work!</t>
+          <t>Really well explained.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:35</t>
+          <t>2024-07-10 13:08:46</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/entry%2Dlevel%2Dcareersaccenture%2Dcareer%2Dfor%2Dfreshers%2Dmgkcf</t>
+          <t>https://www.linkedin.com/pulse/reliance%2Djio%2Dhiring%2Dgraduate%2Dengineering%2D0%2D10%2Dyrs%2Dmeolf</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Really well explained.</t>
+          <t>This is fantastic.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:46</t>
+          <t>2024-07-10 13:08:55</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/reliance%2Djio%2Dhiring%2Dgraduate%2Dengineering%2D0%2D10%2Dyrs%2Dmeolf</t>
+          <t>https://www.linkedin.com/pulse/john%2Ddeere%2Dcareers%2D0%2D4%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dej6df</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>This is fantastic.</t>
+          <t>Couldn't agree more.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-07-10 13:08:55</t>
+          <t>2024-07-10 13:09:06</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/john%2Ddeere%2Dcareers%2D0%2D4%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dej6df</t>
+          <t>https://www.linkedin.com/pulse/lt%2Drecruitment%2Dcorporate%2Dindia%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dc4pvf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Couldn't agree more.</t>
+          <t>Interesting perspective!</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:06</t>
+          <t>2024-07-10 13:09:17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/lt%2Drecruitment%2Dcorporate%2Dindia%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dc4pvf</t>
+          <t>https://www.linkedin.com/pulse/cisco%2Dhiring%2Dgraduate%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D7lmif</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Interesting perspective!</t>
+          <t>Loved this post.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:17</t>
+          <t>2024-07-10 13:09:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/cisco%2Dhiring%2Dgraduate%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D7lmif</t>
+          <t>https://www.linkedin.com/pulse/entry%2Dlevel%2Ddeloitte%2Dhiring%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dfniyf</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loved this post.</t>
+          <t>Super helpful!</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:26</t>
+          <t>2024-07-10 13:09:37</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/entry%2Dlevel%2Ddeloitte%2Dhiring%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dfniyf</t>
+          <t>https://www.linkedin.com/pulse/hsbc%2Dcareers%2Dgraduate%2Dpost%2D0%2D4%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dee7af</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Super helpful!</t>
+          <t>Great insights.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:37</t>
+          <t>2024-07-10 13:09:46</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hsbc%2Dcareers%2Dgraduate%2Dpost%2D0%2D4%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dee7af</t>
+          <t>https://www.linkedin.com/pulse/tata%2Dtechnologies%2Dhiring%2D2024%2Dcareer%2Dfor%2Dfreshers%2Doyddf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Great insights.</t>
+          <t>Thanks for the update.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:46</t>
+          <t>2024-07-10 13:09:57</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/tata%2Dtechnologies%2Dhiring%2D2024%2Dcareer%2Dfor%2Dfreshers%2Doyddf</t>
+          <t>https://www.linkedin.com/pulse/atlas%2Dcopco%2Dhiring%2Dgraduate%2Dengineering%2Dtechnology%2D5dggf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Thanks for the update.</t>
+          <t>Very useful information.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-07-10 13:09:57</t>
+          <t>2024-07-10 13:10:06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/atlas%2Dcopco%2Dhiring%2Dgraduate%2Dengineering%2Dtechnology%2D5dggf</t>
+          <t>https://www.linkedin.com/pulse/morgan%2Dstanley%2Dhiring%2Dgraduate%2Dpost%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dilrwf</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Very useful information.</t>
+          <t>This is gold!</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:06</t>
+          <t>2024-07-10 13:10:17</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/morgan%2Dstanley%2Dhiring%2Dgraduate%2Dpost%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dilrwf</t>
+          <t>https://www.linkedin.com/pulse/walk%2Din%2Dinterviewlt%2Dtcs%2Dhcl%2Dey%2Dinfosys%2Declerx%2Dbechtel%2Drlpuf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>This is gold!</t>
+          <t>Keep up the good work.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:17</t>
+          <t>2024-07-10 13:10:26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/walk%2Din%2Dinterviewlt%2Dtcs%2Dhcl%2Dey%2Dinfosys%2Declerx%2Dbechtel%2Drlpuf</t>
+          <t>https://www.linkedin.com/pulse/amazon%2Dhiring%2Dgraduate%2D0%2D2%2Dy%2Dcareer%2Dfor%2Dfreshers%2Dbni3f</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Keep up the good work.</t>
+          <t>Excellent post.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:26</t>
+          <t>2024-07-10 13:10:37</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/amazon%2Dhiring%2Dgraduate%2D0%2D2%2Dy%2Dcareer%2Dfor%2Dfreshers%2Dbni3f</t>
+          <t>https://www.linkedin.com/pulse/ge%2Dhiring%2Dgraduate%2Dfresher%2D2024%2Dcareer%2Dfor%2Dfreshers%2D7dipf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Excellent post.</t>
+          <t>Nice one!</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:37</t>
+          <t>2024-07-10 13:10:46</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/ge%2Dhiring%2Dgraduate%2Dfresher%2D2024%2Dcareer%2Dfor%2Dfreshers%2D7dipf</t>
+          <t>https://www.linkedin.com/pulse/mega%2Dwalk%2Din%2Ddrivejune%2D21st%2Dany%2Dgraduate%2D0%2D20%2Dyrs%2Ddesnf</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nice one!</t>
+          <t>Really good read.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:46</t>
+          <t>2024-07-10 13:10:55</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/mega%2Dwalk%2Din%2Ddrivejune%2D21st%2Dany%2Dgraduate%2D0%2D20%2Dyrs%2Ddesnf</t>
+          <t>https://www.linkedin.com/pulse/mckinsey%2Dhiring%2Dgraduate%2D0%2D6%2Dcareer%2Dfor%2Dfreshers%2D5kx3f</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Really good read.</t>
+          <t>Spot on!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-07-10 13:10:55</t>
+          <t>2024-07-10 13:11:06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/mckinsey%2Dhiring%2Dgraduate%2D0%2D6%2Dcareer%2Dfor%2Dfreshers%2D5kx3f</t>
+          <t>https://www.linkedin.com/pulse/cargill%2Dhiring%2Dgraduates%2D0%2D7%2Dyr%2Dcareer%2Dfor%2Dfreshers%2Dum3mc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spot on!</t>
+          <t>Very interesting.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-07-10 13:11:06</t>
+          <t>2024-07-10 13:11:18</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/cargill%2Dhiring%2Dgraduates%2D0%2D7%2Dyr%2Dcareer%2Dfor%2Dfreshers%2Dum3mc</t>
+          <t>https://www.linkedin.com/pulse/xerox%2Dcareers%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Drfgec</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Very interesting.</t>
+          <t>Thanks for posting!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2024-07-10 13:11:18</t>
+          <t>2024-07-10 13:11:27</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/xerox%2Dcareers%2D0%2D7%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Drfgec</t>
+          <t>https://www.linkedin.com/pulse/hp%2Dhiring%2Dgraduates%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dbsvqf</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Thanks for posting!</t>
+          <t>Learned something new today.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-07-10 13:11:27</t>
+          <t>2024-07-10 13:11:38</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hp%2Dhiring%2Dgraduates%2D0%2D5%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dbsvqf</t>
+          <t>https://www.linkedin.com/pulse/hcltech%2Dhiring%2Dgraduates%2D0%2D2%2Dcareer%2Dfor%2Dfreshers%2Dx2zif</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Learned something new today.</t>
+          <t>Well said!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2024-07-10 13:11:38</t>
+          <t>2024-07-10 13:11:49</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hcltech%2Dhiring%2Dgraduates%2D0%2D2%2Dcareer%2Dfor%2Dfreshers%2Dx2zif</t>
+          <t>https://www.linkedin.com/pulse/emerson%2Dcareers%2Dgraduates%2Dcareer%2Dfor%2Dfreshers%2D7au3e</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Well said!</t>
+          <t>Fantastic explanation.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-07-10 13:11:49</t>
+          <t>2024-07-10 13:12:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/emerson%2Dcareers%2Dgraduates%2Dcareer%2Dfor%2Dfreshers%2D7au3e</t>
+          <t>https://www.linkedin.com/pulse/siemens%2Dhiring%2Dtech%2Dgraduate%2Dcareer%2Dfor%2Dfreshers%2Dp9fqe</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fantastic explanation.</t>
+          <t>This is great.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2024-07-10 13:12:00</t>
+          <t>2024-07-10 13:12:09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/siemens%2Dhiring%2Dtech%2Dgraduate%2Dcareer%2Dfor%2Dfreshers%2Dp9fqe</t>
+          <t>https://www.linkedin.com/pulse/bnp%2Dparibas%2Dgraduate%2Dhiring%2D24%2Dcareer%2Dfor%2Dfreshers%2Dxhepf</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>This is great.</t>
+          <t>Good job!</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2024-07-10 13:12:09</t>
+          <t>2024-07-10 13:12:18</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/bnp%2Dparibas%2Dgraduate%2Dhiring%2D24%2Dcareer%2Dfor%2Dfreshers%2Dxhepf</t>
+          <t>https://www.linkedin.com/pulse/shell%2Dgraduate%2Dprogramme%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dgdtvf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Good job!</t>
+          <t>Great post!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2024-07-10 13:12:18</t>
+          <t>2024-07-10 13:14:45</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/shell%2Dgraduate%2Dprogramme%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dgdtvf</t>
+          <t>https://www.linkedin.com/pulse/dell%2Dtechnology%2Dhiring%2Dgraduate%2Dcareer%2Dfor%2Dfreshers%2Dlvewf</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Great post!</t>
+          <t>Very informative, thank you!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2024-07-10 13:14:45</t>
+          <t>2024-07-10 13:14:55</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/dell%2Dtechnology%2Dhiring%2Dgraduate%2Dcareer%2Dfor%2Dfreshers%2Dlvewf</t>
+          <t>https://www.linkedin.com/pulse/ibm%2Dgraduate%2Dinternship%2Dcareer%2Dfor%2Dfreshers%2Djwqrf</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Very informative, thank you!</t>
+          <t>I completely agree with this.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-07-10 13:14:55</t>
+          <t>2024-07-10 13:15:08</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/ibm%2Dgraduate%2Dinternship%2Dcareer%2Dfor%2Dfreshers%2Djwqrf</t>
+          <t>https://www.linkedin.com/pulse/walk%2Din%2Dinterview%2Djune%2D15th%2D18th%2Dany%2Dgraduate%2D0%2Djlb0f</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I completely agree with this.</t>
+          <t>Awesome insight!</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-07-10 13:15:08</t>
+          <t>2024-07-10 13:15:19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/walk%2Din%2Dinterview%2Djune%2D15th%2D18th%2Dany%2Dgraduate%2D0%2Djlb0f</t>
+          <t>https://www.linkedin.com/pulse/oracle%2Dhiring%2Dgraduate%2Doperation%2Dtechnology%2D0%2D6%2Dcareer%2Dfor%2Dfreshers%2Ds6hzf</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Awesome insight!</t>
+          <t>This is really helpful.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-07-10 13:15:19</t>
+          <t>2024-07-10 13:15:29</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/oracle%2Dhiring%2Dgraduate%2Doperation%2Dtechnology%2D0%2D6%2Dcareer%2Dfor%2Dfreshers%2Ds6hzf</t>
+          <t>https://www.linkedin.com/pulse/walk%2Din%2Ddrivejune%2D15th%2D2024%2Dcareer%2Dfor%2Dfreshers%2Ddbref</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>This is really helpful.</t>
+          <t>Thanks for sharing!</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-07-10 13:15:29</t>
+          <t>2024-07-10 13:15:38</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/walk%2Din%2Ddrivejune%2D15th%2D2024%2Dcareer%2Dfor%2Dfreshers%2Ddbref</t>
+          <t>https://www.linkedin.com/pulse/wipro%2Dhiring%2Dgraduate%2Doperation%2Dtechnology%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dq74pf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Thanks for sharing!</t>
+          <t>Amazing work!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-07-10 13:15:38</t>
+          <t>2024-07-10 13:15:49</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/wipro%2Dhiring%2Dgraduate%2Doperation%2Dtechnology%2D2024%2Dcareer%2Dfor%2Dfreshers%2Dq74pf</t>
+          <t>https://www.linkedin.com/pulse/amazon%2Dcareers%2Dgraduate%2Doperation%2Dtechnology%2D2024%2Dm39ef</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Amazing work!</t>
+          <t>Really well explained.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2024-07-10 13:15:49</t>
+          <t>2024-07-10 13:16:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/amazon%2Dcareers%2Dgraduate%2Doperation%2Dtechnology%2D2024%2Dm39ef</t>
+          <t>https://www.linkedin.com/pulse/capgeminin%2Dhiring%2Dgraduate%2D2024%2Dcareer%2Dfor%2Dfreshers%2Da49hf</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Really well explained.</t>
+          <t>This is fantastic.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:00</t>
+          <t>2024-07-10 13:16:09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/capgeminin%2Dhiring%2Dgraduate%2D2024%2Dcareer%2Dfor%2Dfreshers%2Da49hf</t>
+          <t>https://www.linkedin.com/pulse/scaling%2Dai%2Dcompetitively%2Dresponsibly%2Dibm%2Dhcsve</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>This is fantastic.</t>
+          <t>Couldn't agree more.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:09</t>
+          <t>2024-07-10 13:16:19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/scaling%2Dai%2Dcompetitively%2Dresponsibly%2Dibm%2Dhcsve</t>
+          <t>https://www.linkedin.com/pulse/pwc%2Dhiring%2Dgraduate%2D0%2D6%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D2om8c</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Couldn't agree more.</t>
+          <t>Interesting perspective!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:19</t>
+          <t>2024-07-10 13:16:28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/pwc%2Dhiring%2Dgraduate%2D0%2D6%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D2om8c</t>
+          <t>https://www.linkedin.com/pulse/hcltech%2Dhiring%2Dgraduate%2Dtrainee%2Dcareer%2Dfor%2Dfreshers%2Dhxrdf</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Interesting perspective!</t>
+          <t>Loved this post.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:28</t>
+          <t>2024-07-10 13:16:42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/hcltech%2Dhiring%2Dgraduate%2Dtrainee%2Dcareer%2Dfor%2Dfreshers%2Dhxrdf</t>
+          <t>https://www.linkedin.com/pulse/atos%2Dvirtual%2Dgraduate%2Dinternship%2Dcareer%2Dfor%2Dfreshers%2Dukpsc</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Loved this post.</t>
+          <t>Super helpful!</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:42</t>
+          <t>2024-07-10 13:16:51</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/atos%2Dvirtual%2Dgraduate%2Dinternship%2Dcareer%2Dfor%2Dfreshers%2Dukpsc</t>
+          <t>https://www.linkedin.com/pulse/honeywell%2Dcareers%2Dany%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D6ofxf</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Super helpful!</t>
+          <t>Great insights.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2024-07-10 13:16:51</t>
+          <t>2024-07-10 13:17:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/honeywell%2Dcareers%2Dany%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2D6ofxf</t>
+          <t>https://www.linkedin.com/pulse/saudi%2Daramco%2Dcareers%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dfjonf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Great insights.</t>
+          <t>Thanks for the update.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2024-07-10 13:17:00</t>
+          <t>2024-07-10 13:17:11</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/saudi%2Daramco%2Dcareers%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dfjonf</t>
+          <t>https://www.linkedin.com/pulse/careers%2Dopportunitiestata%2Dgroup%2D0%2D25%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dce4ac</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Thanks for the update.</t>
+          <t>Very useful information.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2024-07-10 13:17:11</t>
+          <t>2024-07-10 13:17:22</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/pulse/careers%2Dopportunitiestata%2Dgroup%2D0%2D25%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dce4ac</t>
+          <t>https://www.linkedin.com/pulse/siemens%2Dcareers%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dlhysf</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Very useful information.</t>
+          <t>Great post!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2024-07-10 13:17:22</t>
+          <t>2024-07-10 15:07:43</t>
         </is>
       </c>
     </row>

--- a/historical_posts.xlsx
+++ b/historical_posts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\PycharmProjects\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Python script\linked_notification_accept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/historical_posts.xlsx
+++ b/historical_posts.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Python script\linked_notification_accept\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,15 +407,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/pulse/siemens%2Dcareers%2Dgraduates%2D0%2D3%2Dyrs%2Dcareer%2Dfor%2Dfreshers%2Dlhysf</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Great post!</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2024-07-11 15:32:43</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>